--- a/database/user_credentials.xlsx
+++ b/database/user_credentials.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1999-05-31</t>
+          <t>1999-06-12</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2004-07-15</t>
+          <t>2004-07-27</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1984-03-09</t>
+          <t>1984-03-21</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1978-05-01</t>
+          <t>1978-05-14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1989-01-21</t>
+          <t>1989-02-02</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1977-03-01</t>
+          <t>1977-03-13</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1990-12-16</t>
+          <t>1990-12-28</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1982-04-06</t>
+          <t>1982-04-18</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2003-02-27</t>
+          <t>2003-03-11</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1979-03-02</t>
+          <t>1979-03-14</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1978-02-07</t>
+          <t>1978-02-19</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1981-03-25</t>
+          <t>1981-04-06</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1996-11-16</t>
+          <t>1996-11-28</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1991-12-13</t>
+          <t>1991-12-25</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1990-12-05</t>
+          <t>1990-12-17</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1995-04-29</t>
+          <t>1995-05-11</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1982-03-23</t>
+          <t>1982-04-04</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2002-07-11</t>
+          <t>2002-07-23</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1979-02-25</t>
+          <t>1979-03-09</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1987-01-04</t>
+          <t>1987-01-16</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1979-02-19</t>
+          <t>1979-03-03</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1978-06-02</t>
+          <t>1978-06-14</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1989-02-12</t>
+          <t>1989-02-24</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2006-10-10</t>
+          <t>2006-10-23</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1996-09-06</t>
+          <t>1996-09-18</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1978-12-03</t>
+          <t>1978-12-15</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2003-02-24</t>
+          <t>2003-03-08</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1997-04-07</t>
+          <t>1997-04-19</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1982-11-08</t>
+          <t>1982-11-20</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1985-02-04</t>
+          <t>1985-02-16</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1982-10-30</t>
+          <t>1982-11-11</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2003-01-18</t>
+          <t>2003-01-30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1997-08-10</t>
+          <t>1997-08-22</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1990-12-28</t>
+          <t>1991-01-09</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2007-02-18</t>
+          <t>2007-03-02</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1975-04-13</t>
+          <t>1975-04-26</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1994-08-17</t>
+          <t>1994-08-30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2002-06-25</t>
+          <t>2002-07-07</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2002-09-20</t>
+          <t>2002-10-02</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2002-05-24</t>
+          <t>2002-06-05</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2005-03-08</t>
+          <t>2005-03-20</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2003-01-15</t>
+          <t>2003-01-27</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1980-01-02</t>
+          <t>1980-01-14</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1976-04-24</t>
+          <t>1976-05-07</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2006-10-23</t>
+          <t>2006-11-04</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1985-01-07</t>
+          <t>1985-01-19</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1988-06-08</t>
+          <t>1988-06-20</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1979-02-24</t>
+          <t>1979-03-08</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1998-09-02</t>
+          <t>1998-09-14</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2001-01-02</t>
+          <t>2001-01-14</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1987-10-08</t>
+          <t>1987-10-20</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1977-11-06</t>
+          <t>1977-11-18</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1986-08-21</t>
+          <t>1986-09-02</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1991-01-26</t>
+          <t>1991-02-07</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1981-07-03</t>
+          <t>1981-07-15</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2006-08-10</t>
+          <t>2006-08-22</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1996-11-23</t>
+          <t>1996-12-05</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1986-01-20</t>
+          <t>1986-02-01</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1994-06-11</t>
+          <t>1994-06-23</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2000-10-02</t>
+          <t>2000-10-14</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1984-10-12</t>
+          <t>1984-10-24</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1991-04-28</t>
+          <t>1991-05-10</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2006-11-06</t>
+          <t>2006-11-18</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2002-03-18</t>
+          <t>2002-03-30</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2003-06-26</t>
+          <t>2003-07-08</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1990-12-15</t>
+          <t>1990-12-27</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1980-05-30</t>
+          <t>1980-06-11</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1990-07-26</t>
+          <t>1990-08-07</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1976-04-19</t>
+          <t>1976-05-01</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2000-01-22</t>
+          <t>2000-02-03</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1992-09-25</t>
+          <t>1992-10-07</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1994-09-07</t>
+          <t>1994-09-19</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2005-10-28</t>
+          <t>2005-11-09</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2000-03-08</t>
+          <t>2000-03-20</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1977-08-01</t>
+          <t>1977-08-13</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1996-06-27</t>
+          <t>1996-07-09</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1991-05-23</t>
+          <t>1991-06-04</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1988-06-19</t>
+          <t>1988-07-01</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1997-02-14</t>
+          <t>1997-02-26</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1977-06-03</t>
+          <t>1977-06-15</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2001-09-21</t>
+          <t>2001-10-04</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1981-09-21</t>
+          <t>1981-10-03</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1982-08-15</t>
+          <t>1982-08-27</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1997-10-18</t>
+          <t>1997-10-30</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1990-04-24</t>
+          <t>1990-05-06</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2006-12-05</t>
+          <t>2006-12-17</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2003-11-18</t>
+          <t>2003-11-30</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1999-04-25</t>
+          <t>1999-05-07</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1975-10-31</t>
+          <t>1975-11-12</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1988-07-01</t>
+          <t>1988-07-14</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1983-02-08</t>
+          <t>1983-02-20</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1988-07-07</t>
+          <t>1988-07-19</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1978-01-31</t>
+          <t>1978-02-13</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1989-06-10</t>
+          <t>1989-06-22</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2005-11-09</t>
+          <t>2005-11-21</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1995-07-22</t>
+          <t>1995-08-03</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1989-12-12</t>
+          <t>1989-12-24</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1997-10-04</t>
+          <t>1997-10-16</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1995-05-21</t>
+          <t>1995-06-02</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1987-12-01</t>
+          <t>1987-12-13</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2003-01-14</t>
+          <t>2003-01-26</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1984-12-11</t>
+          <t>1984-12-23</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1988-06-09</t>
+          <t>1988-06-21</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1981-11-24</t>
+          <t>1981-12-06</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1989-04-27</t>
+          <t>1989-05-09</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>1994-01-27</t>
+          <t>1994-02-09</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1988-06-12</t>
+          <t>1988-06-24</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2005-10-27</t>
+          <t>2005-11-08</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1982-01-26</t>
+          <t>1982-02-08</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1997-02-20</t>
+          <t>1997-03-04</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1995-01-11</t>
+          <t>1995-01-23</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1978-07-19</t>
+          <t>1978-07-31</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1995-11-24</t>
+          <t>1995-12-06</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1979-04-22</t>
+          <t>1979-05-04</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1987-08-19</t>
+          <t>1987-08-31</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1976-03-28</t>
+          <t>1976-04-09</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1994-09-15</t>
+          <t>1994-09-27</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1976-11-24</t>
+          <t>1976-12-06</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1997-09-09</t>
+          <t>1997-09-21</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1980-05-19</t>
+          <t>1980-05-31</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1996-12-07</t>
+          <t>1996-12-19</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1994-08-17</t>
+          <t>1994-08-29</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1983-05-06</t>
+          <t>1983-05-18</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2002-12-29</t>
+          <t>2003-01-10</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1991-09-14</t>
+          <t>1991-09-26</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1984-12-14</t>
+          <t>1984-12-26</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1989-03-09</t>
+          <t>1989-03-21</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1977-10-12</t>
+          <t>1977-10-24</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1977-08-22</t>
+          <t>1977-09-03</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1990-11-04</t>
+          <t>1990-11-16</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1992-12-26</t>
+          <t>1993-01-07</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1991-08-12</t>
+          <t>1991-08-24</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1978-12-21</t>
+          <t>1979-01-02</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2003-04-23</t>
+          <t>2003-05-05</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1987-06-23</t>
+          <t>1987-07-05</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1998-02-01</t>
+          <t>1998-02-13</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1985-01-03</t>
+          <t>1985-01-15</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1980-08-27</t>
+          <t>1980-09-08</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1995-06-23</t>
+          <t>1995-07-05</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1979-07-05</t>
+          <t>1979-07-18</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1979-05-26</t>
+          <t>1979-06-07</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1994-11-15</t>
+          <t>1994-11-27</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1975-07-30</t>
+          <t>1975-08-12</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1985-03-19</t>
+          <t>1985-03-31</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2000-04-15</t>
+          <t>2000-04-27</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1999-01-24</t>
+          <t>1999-02-05</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1996-08-25</t>
+          <t>1996-09-06</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1995-05-02</t>
+          <t>1995-05-14</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1976-08-11</t>
+          <t>1976-08-23</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1988-09-08</t>
+          <t>1988-09-21</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1980-10-30</t>
+          <t>1980-11-12</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1992-03-29</t>
+          <t>1992-04-10</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1980-08-26</t>
+          <t>1980-09-07</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1982-10-06</t>
+          <t>1982-10-19</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1977-09-07</t>
+          <t>1977-09-19</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1986-01-20</t>
+          <t>1986-02-01</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1984-07-14</t>
+          <t>1984-07-26</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1998-09-10</t>
+          <t>1998-09-23</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1985-02-10</t>
+          <t>1985-02-22</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1976-05-25</t>
+          <t>1976-06-06</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1975-11-01</t>
+          <t>1975-11-14</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1991-09-07</t>
+          <t>1991-09-19</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1993-12-01</t>
+          <t>1993-12-13</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2001-05-25</t>
+          <t>2001-06-07</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1995-03-08</t>
+          <t>1995-03-20</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2000-05-20</t>
+          <t>2000-06-01</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1990-07-15</t>
+          <t>1990-07-27</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2005-07-18</t>
+          <t>2005-07-30</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1978-09-10</t>
+          <t>1978-09-22</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1984-04-14</t>
+          <t>1984-04-26</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1985-05-04</t>
+          <t>1985-05-16</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1980-02-21</t>
+          <t>1980-03-04</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1994-10-24</t>
+          <t>1994-11-05</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1981-05-24</t>
+          <t>1981-06-05</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1981-02-03</t>
+          <t>1981-02-15</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1997-12-31</t>
+          <t>1998-01-12</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11096,7 +11096,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2004-11-06</t>
+          <t>2004-11-18</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1985-08-27</t>
+          <t>1985-09-08</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1999-07-21</t>
+          <t>1999-08-02</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2001-09-17</t>
+          <t>2001-09-29</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1990-04-28</t>
+          <t>1990-05-10</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1975-04-26</t>
+          <t>1975-05-08</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2004-11-07</t>
+          <t>2004-11-20</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1996-08-17</t>
+          <t>1996-08-29</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1979-03-08</t>
+          <t>1979-03-20</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1997-04-11</t>
+          <t>1997-04-23</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1980-10-01</t>
+          <t>1980-10-13</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1991-09-21</t>
+          <t>1991-10-03</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1995-05-27</t>
+          <t>1995-06-08</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1995-11-28</t>
+          <t>1995-12-10</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1997-11-11</t>
+          <t>1997-11-23</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -11996,7 +11996,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1986-02-26</t>
+          <t>1986-03-10</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2001-10-29</t>
+          <t>2001-11-10</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1981-01-05</t>
+          <t>1981-01-17</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1995-10-24</t>
+          <t>1995-11-05</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1988-03-24</t>
+          <t>1988-04-05</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1980-12-13</t>
+          <t>1980-12-25</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1978-04-03</t>
+          <t>1978-04-15</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1997-04-04</t>
+          <t>1997-04-16</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1977-09-30</t>
+          <t>1977-10-12</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1991-09-02</t>
+          <t>1991-09-14</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1980-02-09</t>
+          <t>1980-02-21</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1980-03-10</t>
+          <t>1980-03-22</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1996-11-29</t>
+          <t>1996-12-11</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1982-11-09</t>
+          <t>1982-11-22</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1980-05-28</t>
+          <t>1980-06-09</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1999-10-27</t>
+          <t>1999-11-08</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1975-10-19</t>
+          <t>1975-10-31</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1993-07-01</t>
+          <t>1993-07-13</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1993-05-04</t>
+          <t>1993-05-16</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1992-03-24</t>
+          <t>1992-04-05</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2003-10-26</t>
+          <t>2003-11-07</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1995-10-23</t>
+          <t>1995-11-04</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1987-01-23</t>
+          <t>1987-02-05</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1994-09-17</t>
+          <t>1994-09-29</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1987-09-21</t>
+          <t>1987-10-04</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1989-12-12</t>
+          <t>1989-12-24</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2004-07-17</t>
+          <t>2004-07-29</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1995-04-11</t>
+          <t>1995-04-23</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1998-04-23</t>
+          <t>1998-05-05</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1988-12-17</t>
+          <t>1988-12-30</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1979-05-26</t>
+          <t>1979-06-08</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1977-08-11</t>
+          <t>1977-08-23</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1980-01-25</t>
+          <t>1980-02-06</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1986-08-03</t>
+          <t>1986-08-15</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1986-02-15</t>
+          <t>1986-02-27</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1998-12-16</t>
+          <t>1998-12-28</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1991-07-14</t>
+          <t>1991-07-26</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1993-10-31</t>
+          <t>1993-11-12</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14276,7 +14276,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1997-03-11</t>
+          <t>1997-03-23</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2003-09-17</t>
+          <t>2003-09-29</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1997-06-14</t>
+          <t>1997-06-26</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2004-08-14</t>
+          <t>2004-08-26</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1996-04-19</t>
+          <t>1996-05-01</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1980-08-26</t>
+          <t>1980-09-07</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1993-12-25</t>
+          <t>1994-01-06</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1994-12-31</t>
+          <t>1995-01-13</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1983-08-29</t>
+          <t>1983-09-10</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2001-10-07</t>
+          <t>2001-10-19</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1993-04-11</t>
+          <t>1993-04-23</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2001-03-21</t>
+          <t>2001-04-02</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2002-10-21</t>
+          <t>2002-11-02</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15056,7 +15056,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2002-09-27</t>
+          <t>2002-10-10</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1986-04-12</t>
+          <t>1986-04-24</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2001-12-28</t>
+          <t>2002-01-09</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>2005-06-15</t>
+          <t>2005-06-27</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1988-09-04</t>
+          <t>1988-09-16</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15356,7 +15356,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1998-11-30</t>
+          <t>1998-12-12</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1988-01-02</t>
+          <t>1988-01-14</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1984-01-17</t>
+          <t>1984-01-29</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1989-06-08</t>
+          <t>1989-06-20</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1978-09-09</t>
+          <t>1978-09-21</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2001-09-01</t>
+          <t>2001-09-13</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1985-03-25</t>
+          <t>1985-04-07</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2001-06-02</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1983-08-07</t>
+          <t>1983-08-19</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1982-08-25</t>
+          <t>1982-09-06</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1978-11-24</t>
+          <t>1978-12-07</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>2003-11-04</t>
+          <t>2003-11-17</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2004-11-10</t>
+          <t>2004-11-22</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2006-05-21</t>
+          <t>2006-06-02</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1986-12-04</t>
+          <t>1986-12-16</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2005-05-26</t>
+          <t>2005-06-07</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1981-10-18</t>
+          <t>1981-10-30</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1993-01-25</t>
+          <t>1993-02-06</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1989-09-20</t>
+          <t>1989-10-02</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1993-03-29</t>
+          <t>1993-04-10</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1999-12-18</t>
+          <t>1999-12-31</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1982-05-03</t>
+          <t>1982-05-15</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1989-04-10</t>
+          <t>1989-04-22</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1984-10-06</t>
+          <t>1984-10-18</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1985-11-13</t>
+          <t>1985-11-25</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1981-04-25</t>
+          <t>1981-05-07</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16916,7 +16916,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1985-08-30</t>
+          <t>1985-09-12</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -16976,7 +16976,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1997-03-13</t>
+          <t>1997-03-25</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1990-10-09</t>
+          <t>1990-10-21</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1979-06-19</t>
+          <t>1979-07-01</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>2004-09-27</t>
+          <t>2004-10-09</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -17216,7 +17216,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1992-12-30</t>
+          <t>1993-01-11</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1977-04-29</t>
+          <t>1977-05-11</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -17336,7 +17336,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1992-06-17</t>
+          <t>1992-06-29</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2002-06-24</t>
+          <t>2002-07-06</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1995-09-26</t>
+          <t>1995-10-08</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1994-07-07</t>
+          <t>1994-07-20</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1977-11-07</t>
+          <t>1977-11-19</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1990-01-25</t>
+          <t>1990-02-06</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1987-06-16</t>
+          <t>1987-06-28</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1980-02-15</t>
+          <t>1980-02-27</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1987-07-03</t>
+          <t>1987-07-15</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -17876,7 +17876,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1978-12-23</t>
+          <t>1979-01-04</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -17936,7 +17936,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1978-11-12</t>
+          <t>1978-11-24</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -17996,7 +17996,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1991-08-28</t>
+          <t>1991-09-09</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1979-07-30</t>
+          <t>1979-08-11</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1993-06-01</t>
+          <t>1993-06-13</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1991-10-23</t>
+          <t>1991-11-04</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1997-05-10</t>
+          <t>1997-05-22</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1983-10-13</t>
+          <t>1983-10-25</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -18356,7 +18356,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2006-08-18</t>
+          <t>2006-08-30</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>2003-01-24</t>
+          <t>2003-02-06</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -18476,7 +18476,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1980-06-30</t>
+          <t>1980-07-12</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1978-01-06</t>
+          <t>1978-01-18</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2006-06-30</t>
+          <t>2006-07-12</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1997-07-08</t>
+          <t>1997-07-20</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1985-03-09</t>
+          <t>1985-03-21</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1983-06-23</t>
+          <t>1983-07-05</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -18836,7 +18836,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2005-07-30</t>
+          <t>2005-08-11</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1980-08-05</t>
+          <t>1980-08-17</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1977-10-07</t>
+          <t>1977-10-19</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -19016,7 +19016,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1991-12-24</t>
+          <t>1992-01-05</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -19076,7 +19076,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1988-02-06</t>
+          <t>1988-02-18</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1983-02-22</t>
+          <t>1983-03-06</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -19196,7 +19196,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1976-01-17</t>
+          <t>1976-01-29</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1996-12-15</t>
+          <t>1996-12-27</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1977-03-02</t>
+          <t>1977-03-14</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1992-03-23</t>
+          <t>1992-04-04</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -19436,7 +19436,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1975-07-06</t>
+          <t>1975-07-18</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -19496,7 +19496,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1996-05-03</t>
+          <t>1996-05-15</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1999-07-12</t>
+          <t>1999-07-25</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1997-11-18</t>
+          <t>1997-11-30</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1979-11-24</t>
+          <t>1979-12-07</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1975-11-23</t>
+          <t>1975-12-05</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1989-04-03</t>
+          <t>1989-04-16</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1993-09-06</t>
+          <t>1993-09-18</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>1982-02-03</t>
+          <t>1982-02-15</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>2000-01-15</t>
+          <t>2000-01-27</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1989-10-05</t>
+          <t>1989-10-17</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1977-05-16</t>
+          <t>1977-05-28</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>2005-03-21</t>
+          <t>2005-04-02</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>1996-09-28</t>
+          <t>1996-10-10</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>2001-07-01</t>
+          <t>2001-07-13</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20336,7 +20336,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1975-12-19</t>
+          <t>1975-12-31</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>1981-11-04</t>
+          <t>1981-11-17</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1996-03-20</t>
+          <t>1996-04-02</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>1989-02-13</t>
+          <t>1989-02-25</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>1985-10-13</t>
+          <t>1985-10-25</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1999-01-23</t>
+          <t>1999-02-04</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -20696,7 +20696,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>2000-11-20</t>
+          <t>2000-12-02</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>1989-06-29</t>
+          <t>1989-07-11</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>1999-11-27</t>
+          <t>1999-12-09</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>1984-01-02</t>
+          <t>1984-01-14</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>1976-06-25</t>
+          <t>1976-07-07</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>2003-07-03</t>
+          <t>2003-07-16</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>1981-11-12</t>
+          <t>1981-11-24</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>1988-02-12</t>
+          <t>1988-02-24</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>2005-04-12</t>
+          <t>2005-04-24</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>1990-03-11</t>
+          <t>1990-03-23</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>2002-09-30</t>
+          <t>2002-10-12</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>2001-10-19</t>
+          <t>2001-10-31</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>2001-05-31</t>
+          <t>2001-06-12</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>1981-10-18</t>
+          <t>1981-10-30</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>1977-10-04</t>
+          <t>1977-10-17</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>1988-10-16</t>
+          <t>1988-10-28</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>1979-11-30</t>
+          <t>1979-12-12</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>1993-03-31</t>
+          <t>1993-04-13</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>2002-12-22</t>
+          <t>2003-01-03</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>1986-03-19</t>
+          <t>1986-03-31</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>1975-05-24</t>
+          <t>1975-06-05</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>1982-12-22</t>
+          <t>1983-01-03</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>1986-08-23</t>
+          <t>1986-09-05</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>1999-05-08</t>
+          <t>1999-05-20</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>2000-11-05</t>
+          <t>2000-11-17</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -22196,7 +22196,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>1997-05-29</t>
+          <t>1997-06-11</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>1989-04-19</t>
+          <t>1989-05-01</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>1987-09-10</t>
+          <t>1987-09-22</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -22376,7 +22376,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>2005-12-15</t>
+          <t>2005-12-27</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -22436,7 +22436,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>1985-12-22</t>
+          <t>1986-01-03</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>1980-09-14</t>
+          <t>1980-09-26</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>1986-08-15</t>
+          <t>1986-08-27</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -22616,7 +22616,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>1987-08-20</t>
+          <t>1987-09-01</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -22676,7 +22676,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>1975-11-02</t>
+          <t>1975-11-14</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>1983-03-13</t>
+          <t>1983-03-25</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>2002-10-13</t>
+          <t>2002-10-26</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>1998-03-16</t>
+          <t>1998-03-28</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>1982-03-22</t>
+          <t>1982-04-03</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>1993-10-20</t>
+          <t>1993-11-01</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>2000-05-24</t>
+          <t>2000-06-05</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>2005-04-22</t>
+          <t>2005-05-04</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>1994-01-19</t>
+          <t>1994-02-01</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -23216,7 +23216,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>2000-05-21</t>
+          <t>2000-06-02</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>2003-11-24</t>
+          <t>2003-12-06</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>1996-03-25</t>
+          <t>1996-04-06</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -23396,7 +23396,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>2003-10-09</t>
+          <t>2003-10-21</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -23456,7 +23456,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>1990-09-06</t>
+          <t>1990-09-18</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>1985-04-19</t>
+          <t>1985-05-01</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>1990-11-06</t>
+          <t>1990-11-18</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>1992-11-02</t>
+          <t>1992-11-14</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -23696,7 +23696,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>2002-06-08</t>
+          <t>2002-06-20</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -23756,7 +23756,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>1998-10-22</t>
+          <t>1998-11-03</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -23816,7 +23816,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>1986-03-09</t>
+          <t>1986-03-21</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>1976-04-14</t>
+          <t>1976-04-26</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>1981-09-05</t>
+          <t>1981-09-17</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -23996,7 +23996,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>1996-09-16</t>
+          <t>1996-09-28</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -24056,7 +24056,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>1994-04-24</t>
+          <t>1994-05-07</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>1982-02-28</t>
+          <t>1982-03-12</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>1981-06-02</t>
+          <t>1981-06-14</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>2000-10-08</t>
+          <t>2000-10-20</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -24296,7 +24296,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>1989-04-05</t>
+          <t>1989-04-17</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>1990-04-06</t>
+          <t>1990-04-18</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -24416,7 +24416,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>1978-01-04</t>
+          <t>1978-01-16</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>1988-04-06</t>
+          <t>1988-04-18</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -24536,7 +24536,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>2002-03-08</t>
+          <t>2002-03-20</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -24596,7 +24596,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>1997-01-11</t>
+          <t>1997-01-23</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -24656,7 +24656,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>1997-06-22</t>
+          <t>1997-07-04</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -24716,7 +24716,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>1984-05-17</t>
+          <t>1984-05-29</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>1993-11-22</t>
+          <t>1993-12-05</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>1989-04-16</t>
+          <t>1989-04-28</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>1993-06-29</t>
+          <t>1993-07-11</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>1976-07-16</t>
+          <t>1976-07-28</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -25016,7 +25016,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>1982-10-09</t>
+          <t>1982-10-21</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -25076,7 +25076,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>2005-01-09</t>
+          <t>2005-01-21</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -25136,7 +25136,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>2006-03-29</t>
+          <t>2006-04-10</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>1995-02-04</t>
+          <t>1995-02-16</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -25256,7 +25256,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>2001-08-20</t>
+          <t>2001-09-01</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -25316,7 +25316,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>1988-03-19</t>
+          <t>1988-03-31</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -25376,7 +25376,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>1998-03-23</t>
+          <t>1998-04-04</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -25436,7 +25436,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>1999-08-24</t>
+          <t>1999-09-05</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -25496,7 +25496,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>1985-10-14</t>
+          <t>1985-10-26</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>1995-12-06</t>
+          <t>1995-12-18</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -25616,7 +25616,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>1979-10-23</t>
+          <t>1979-11-04</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>1995-01-24</t>
+          <t>1995-02-05</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -25736,7 +25736,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>2001-12-14</t>
+          <t>2001-12-26</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>2003-04-28</t>
+          <t>2003-05-10</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>2005-07-27</t>
+          <t>2005-08-08</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>1997-10-12</t>
+          <t>1997-10-24</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>1998-03-20</t>
+          <t>1998-04-01</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -26036,7 +26036,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>1986-08-09</t>
+          <t>1986-08-21</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -26096,7 +26096,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>1988-04-15</t>
+          <t>1988-04-27</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>1975-09-03</t>
+          <t>1975-09-15</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -26216,7 +26216,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>1998-03-23</t>
+          <t>1998-04-04</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>1992-01-08</t>
+          <t>1992-01-20</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -26336,7 +26336,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>1986-01-09</t>
+          <t>1986-01-21</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -26396,7 +26396,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>1993-06-13</t>
+          <t>1993-06-25</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>1978-06-23</t>
+          <t>1978-07-05</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -26516,7 +26516,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>2000-01-22</t>
+          <t>2000-02-03</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -26576,7 +26576,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>2004-08-17</t>
+          <t>2004-08-29</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>1983-06-02</t>
+          <t>1983-06-14</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -26696,7 +26696,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>2005-11-24</t>
+          <t>2005-12-06</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>1998-04-21</t>
+          <t>1998-05-03</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -26816,7 +26816,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>1988-10-11</t>
+          <t>1988-10-23</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>1991-08-01</t>
+          <t>1991-08-13</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>1981-02-19</t>
+          <t>1981-03-03</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>1995-01-23</t>
+          <t>1995-02-04</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -27056,7 +27056,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>1991-09-22</t>
+          <t>1991-10-04</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -27116,7 +27116,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>1990-11-22</t>
+          <t>1990-12-04</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -27176,7 +27176,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>1981-09-12</t>
+          <t>1981-09-24</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -27236,7 +27236,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>1984-02-04</t>
+          <t>1984-02-16</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -27296,7 +27296,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>1998-12-15</t>
+          <t>1998-12-27</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -27356,7 +27356,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>1991-08-09</t>
+          <t>1991-08-21</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>1995-09-30</t>
+          <t>1995-10-12</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -27476,7 +27476,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>1975-03-13</t>
+          <t>1975-03-25</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -27536,7 +27536,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>2001-07-16</t>
+          <t>2001-07-28</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -27596,7 +27596,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>1988-07-25</t>
+          <t>1988-08-06</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -27656,7 +27656,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>1985-02-05</t>
+          <t>1985-02-17</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>1986-01-04</t>
+          <t>1986-01-16</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -27776,7 +27776,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>1976-03-12</t>
+          <t>1976-03-25</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -27836,7 +27836,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>1984-06-06</t>
+          <t>1984-06-18</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>1980-03-22</t>
+          <t>1980-04-03</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>1987-09-07</t>
+          <t>1987-09-19</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>1997-11-30</t>
+          <t>1997-12-12</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -28076,7 +28076,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>2003-03-10</t>
+          <t>2003-03-22</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -28136,7 +28136,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>1984-08-05</t>
+          <t>1984-08-17</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>2002-12-05</t>
+          <t>2002-12-17</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -28256,7 +28256,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>1993-02-07</t>
+          <t>1993-02-19</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>2005-01-20</t>
+          <t>2005-02-01</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -28376,7 +28376,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>1998-06-05</t>
+          <t>1998-06-17</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>2002-05-06</t>
+          <t>2002-05-18</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -28496,7 +28496,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>2003-04-17</t>
+          <t>2003-04-29</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -28556,7 +28556,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>1993-02-18</t>
+          <t>1993-03-03</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -28616,7 +28616,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>1994-07-09</t>
+          <t>1994-07-21</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -28676,7 +28676,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>1975-06-06</t>
+          <t>1975-06-18</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>2001-08-31</t>
+          <t>2001-09-12</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>1980-09-05</t>
+          <t>1980-09-17</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -28856,7 +28856,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>1979-10-19</t>
+          <t>1979-10-31</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -28916,7 +28916,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>2000-09-24</t>
+          <t>2000-10-06</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>1995-07-27</t>
+          <t>1995-08-08</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -29036,7 +29036,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>2004-08-02</t>
+          <t>2004-08-14</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -29096,7 +29096,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>1999-11-29</t>
+          <t>1999-12-11</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>1995-06-12</t>
+          <t>1995-06-24</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -29216,7 +29216,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>2001-03-10</t>
+          <t>2001-03-22</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -29276,7 +29276,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>1980-09-03</t>
+          <t>1980-09-15</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>1995-09-25</t>
+          <t>1995-10-07</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -29396,7 +29396,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>1986-11-08</t>
+          <t>1986-11-20</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -29456,7 +29456,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>1998-04-10</t>
+          <t>1998-04-22</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -29516,7 +29516,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>1999-05-26</t>
+          <t>1999-06-08</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>1998-03-22</t>
+          <t>1998-04-03</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -29636,7 +29636,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>2004-04-22</t>
+          <t>2004-05-04</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -29696,7 +29696,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>1983-05-19</t>
+          <t>1983-05-31</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -29756,7 +29756,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>1979-01-04</t>
+          <t>1979-01-16</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -29816,7 +29816,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>1991-08-10</t>
+          <t>1991-08-22</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -29876,7 +29876,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>1998-07-20</t>
+          <t>1998-08-01</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -29936,7 +29936,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>1997-12-16</t>
+          <t>1997-12-28</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>1990-04-05</t>
+          <t>1990-04-17</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>1986-07-20</t>
+          <t>1986-08-01</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -30116,7 +30116,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>2000-05-19</t>
+          <t>2000-05-31</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -30176,7 +30176,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>2006-07-31</t>
+          <t>2006-08-12</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -30236,7 +30236,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>2000-10-09</t>
+          <t>2000-10-21</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -30296,7 +30296,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>2001-03-05</t>
+          <t>2001-03-18</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -30356,7 +30356,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>1977-03-20</t>
+          <t>1977-04-01</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>1977-09-01</t>
+          <t>1977-09-13</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -30476,7 +30476,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>1983-06-08</t>
+          <t>1983-06-20</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
@@ -30536,7 +30536,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>1985-09-20</t>
+          <t>1985-10-02</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
@@ -30596,7 +30596,7 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>1986-11-08</t>
+          <t>1986-11-21</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
@@ -30656,7 +30656,7 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>1988-07-13</t>
+          <t>1988-07-25</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
@@ -30716,7 +30716,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1988-11-24</t>
+          <t>1988-12-06</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
@@ -30776,7 +30776,7 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>1990-01-16</t>
+          <t>1990-01-28</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
@@ -30836,7 +30836,7 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>1989-12-02</t>
+          <t>1989-12-14</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
@@ -30896,7 +30896,7 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>1992-05-02</t>
+          <t>1992-05-14</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
@@ -30956,7 +30956,7 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>1983-11-18</t>
+          <t>1983-12-01</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>1985-01-28</t>
+          <t>1985-02-09</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
@@ -31076,7 +31076,7 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>1980-04-04</t>
+          <t>1980-04-16</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>1987-04-16</t>
+          <t>1987-04-28</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
@@ -31196,7 +31196,7 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>1979-09-03</t>
+          <t>1979-09-15</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
@@ -31256,7 +31256,7 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>1977-10-16</t>
+          <t>1977-10-28</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
@@ -31316,7 +31316,7 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>1989-08-24</t>
+          <t>1989-09-05</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
@@ -31376,7 +31376,7 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>2004-06-20</t>
+          <t>2004-07-02</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
@@ -31436,7 +31436,7 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>2001-11-13</t>
+          <t>2001-11-25</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
@@ -31496,7 +31496,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>1979-08-26</t>
+          <t>1979-09-07</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
@@ -31556,7 +31556,7 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>2004-06-17</t>
+          <t>2004-06-29</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
@@ -31616,7 +31616,7 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>1985-06-25</t>
+          <t>1985-07-07</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>1994-01-12</t>
+          <t>1994-01-24</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
@@ -31736,7 +31736,7 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>1997-01-21</t>
+          <t>1997-02-02</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -31796,7 +31796,7 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>1989-03-27</t>
+          <t>1989-04-08</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>1994-10-07</t>
+          <t>1994-10-19</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
@@ -31916,7 +31916,7 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>2007-02-07</t>
+          <t>2007-02-20</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
@@ -31976,7 +31976,7 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>1975-03-21</t>
+          <t>1975-04-02</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
@@ -32036,7 +32036,7 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>2004-03-10</t>
+          <t>2004-03-22</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>2005-09-22</t>
+          <t>2005-10-05</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
@@ -32156,7 +32156,7 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1998-03-10</t>
+          <t>1998-03-22</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
@@ -32216,7 +32216,7 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>1980-01-30</t>
+          <t>1980-02-11</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>2003-05-31</t>
+          <t>2003-06-12</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
@@ -32336,7 +32336,7 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>2001-01-16</t>
+          <t>2001-01-28</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
@@ -32396,7 +32396,7 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>1996-08-14</t>
+          <t>1996-08-26</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
@@ -32456,7 +32456,7 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>1988-01-25</t>
+          <t>1988-02-06</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>2005-04-06</t>
+          <t>2005-04-18</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
@@ -32576,7 +32576,7 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>1993-12-14</t>
+          <t>1993-12-26</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
@@ -32636,7 +32636,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>2006-02-23</t>
+          <t>2006-03-07</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
@@ -32696,7 +32696,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>1998-04-14</t>
+          <t>1998-04-26</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
@@ -32756,7 +32756,7 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>1978-05-14</t>
+          <t>1978-05-26</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
@@ -32816,7 +32816,7 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>1994-08-04</t>
+          <t>1994-08-16</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
@@ -32876,7 +32876,7 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>2002-01-11</t>
+          <t>2002-01-23</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>2000-07-07</t>
+          <t>2000-07-19</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
@@ -32996,7 +32996,7 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>1987-11-06</t>
+          <t>1987-11-18</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
@@ -33056,7 +33056,7 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>2004-10-16</t>
+          <t>2004-10-28</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
@@ -33116,7 +33116,7 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>1983-01-04</t>
+          <t>1983-01-16</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
@@ -33176,7 +33176,7 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>1984-01-02</t>
+          <t>1984-01-14</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
@@ -33236,7 +33236,7 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>1998-12-19</t>
+          <t>1998-12-31</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
@@ -33296,7 +33296,7 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>1988-02-09</t>
+          <t>1988-02-21</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>1984-09-11</t>
+          <t>1984-09-24</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
@@ -33416,7 +33416,7 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>1988-06-01</t>
+          <t>1988-06-13</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
@@ -33476,7 +33476,7 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>2002-10-27</t>
+          <t>2002-11-09</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
@@ -33536,7 +33536,7 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>1979-05-27</t>
+          <t>1979-06-08</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
@@ -33596,7 +33596,7 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>1982-12-03</t>
+          <t>1982-12-15</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
@@ -33656,7 +33656,7 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>1983-08-17</t>
+          <t>1983-08-29</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
@@ -33716,7 +33716,7 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>1989-01-13</t>
+          <t>1989-01-25</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
@@ -33776,7 +33776,7 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>2000-10-03</t>
+          <t>2000-10-15</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
@@ -33836,7 +33836,7 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>1980-11-01</t>
+          <t>1980-11-13</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
@@ -33896,7 +33896,7 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>1984-10-28</t>
+          <t>1984-11-09</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
@@ -33956,7 +33956,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>2005-08-18</t>
+          <t>2005-08-30</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
@@ -34016,7 +34016,7 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>1996-10-23</t>
+          <t>1996-11-04</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
@@ -34076,7 +34076,7 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>1989-08-25</t>
+          <t>1989-09-07</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
@@ -34136,7 +34136,7 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>1993-12-27</t>
+          <t>1994-01-08</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>1977-07-08</t>
+          <t>1977-07-20</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
@@ -34256,7 +34256,7 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1981-07-18</t>
+          <t>1981-07-31</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
@@ -34316,7 +34316,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>2002-03-23</t>
+          <t>2002-04-04</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
@@ -34376,7 +34376,7 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>1984-11-20</t>
+          <t>1984-12-02</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
@@ -34436,7 +34436,7 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>2001-06-02</t>
+          <t>2001-06-14</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
@@ -34496,7 +34496,7 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>1975-08-21</t>
+          <t>1975-09-02</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
@@ -34556,7 +34556,7 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>1990-01-16</t>
+          <t>1990-01-28</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>2000-01-02</t>
+          <t>2000-01-14</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
@@ -34676,7 +34676,7 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1980-10-11</t>
+          <t>1980-10-23</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
@@ -34736,7 +34736,7 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>1988-02-20</t>
+          <t>1988-03-03</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
@@ -34796,7 +34796,7 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1988-08-08</t>
+          <t>1988-08-20</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
@@ -34856,7 +34856,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1990-12-03</t>
+          <t>1990-12-15</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
@@ -34916,7 +34916,7 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1981-06-24</t>
+          <t>1981-07-06</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
@@ -34976,7 +34976,7 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1998-08-11</t>
+          <t>1998-08-23</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
@@ -35036,7 +35036,7 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>2005-05-26</t>
+          <t>2005-06-07</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
@@ -35096,7 +35096,7 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1988-04-14</t>
+          <t>1988-04-26</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
@@ -35156,7 +35156,7 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>1995-09-30</t>
+          <t>1995-10-12</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
@@ -35216,7 +35216,7 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>1982-05-06</t>
+          <t>1982-05-18</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
@@ -35276,7 +35276,7 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>1976-01-28</t>
+          <t>1976-02-09</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
@@ -35336,7 +35336,7 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>1975-08-06</t>
+          <t>1975-08-18</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
@@ -35396,7 +35396,7 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>1989-05-25</t>
+          <t>1989-06-06</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
@@ -35456,7 +35456,7 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>1985-12-16</t>
+          <t>1985-12-28</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
@@ -35516,7 +35516,7 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>2007-01-05</t>
+          <t>2007-01-17</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
@@ -35576,7 +35576,7 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>1982-11-20</t>
+          <t>1982-12-02</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
@@ -35636,7 +35636,7 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1980-07-28</t>
+          <t>1980-08-10</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
@@ -35696,7 +35696,7 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>1989-01-16</t>
+          <t>1989-01-28</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
@@ -35756,7 +35756,7 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>1977-12-01</t>
+          <t>1977-12-13</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
@@ -35816,7 +35816,7 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1979-11-21</t>
+          <t>1979-12-03</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
@@ -35876,7 +35876,7 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1983-01-28</t>
+          <t>1983-02-09</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
@@ -35936,7 +35936,7 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>1986-08-19</t>
+          <t>1986-08-31</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
@@ -35996,7 +35996,7 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1986-05-28</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
@@ -36056,7 +36056,7 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>2001-06-11</t>
+          <t>2001-06-23</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
@@ -36116,7 +36116,7 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>1997-03-28</t>
+          <t>1997-04-09</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>2002-12-17</t>
+          <t>2002-12-29</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
@@ -36236,7 +36236,7 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>2004-04-04</t>
+          <t>2004-04-16</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
@@ -36296,7 +36296,7 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>2003-07-18</t>
+          <t>2003-07-30</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
@@ -36356,7 +36356,7 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>1986-08-19</t>
+          <t>1986-08-31</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
@@ -36416,7 +36416,7 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1980-12-21</t>
+          <t>1981-01-03</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
@@ -36476,7 +36476,7 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1994-07-26</t>
+          <t>1994-08-07</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
@@ -36536,7 +36536,7 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1994-11-06</t>
+          <t>1994-11-18</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
@@ -36596,7 +36596,7 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1995-06-12</t>
+          <t>1995-06-24</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
@@ -36656,7 +36656,7 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>2004-02-01</t>
+          <t>2004-02-13</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
@@ -36716,7 +36716,7 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1978-04-09</t>
+          <t>1978-04-21</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1998-08-08</t>
+          <t>1998-08-20</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
@@ -36836,7 +36836,7 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>1975-09-24</t>
+          <t>1975-10-06</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
@@ -36896,7 +36896,7 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1975-12-12</t>
+          <t>1975-12-25</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
@@ -36956,7 +36956,7 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1999-04-12</t>
+          <t>1999-04-25</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
@@ -37016,7 +37016,7 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1989-01-07</t>
+          <t>1989-01-19</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
@@ -37076,7 +37076,7 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>2005-04-13</t>
+          <t>2005-04-25</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
@@ -37136,7 +37136,7 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1980-07-03</t>
+          <t>1980-07-15</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
@@ -37196,7 +37196,7 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1991-01-18</t>
+          <t>1991-01-30</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
@@ -37256,7 +37256,7 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1999-10-12</t>
+          <t>1999-10-24</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
@@ -37316,7 +37316,7 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>1998-11-14</t>
+          <t>1998-11-27</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
@@ -37376,7 +37376,7 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1993-01-25</t>
+          <t>1993-02-06</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
@@ -37436,7 +37436,7 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1994-11-19</t>
+          <t>1994-12-02</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
@@ -37496,7 +37496,7 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>1984-10-01</t>
+          <t>1984-10-13</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
@@ -37556,7 +37556,7 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1993-04-20</t>
+          <t>1993-05-02</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
@@ -37616,7 +37616,7 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1993-07-04</t>
+          <t>1993-07-16</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
@@ -37676,7 +37676,7 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>2004-06-21</t>
+          <t>2004-07-03</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
@@ -37736,7 +37736,7 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1975-05-24</t>
+          <t>1975-06-05</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
@@ -37796,7 +37796,7 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1996-09-12</t>
+          <t>1996-09-24</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
@@ -37856,7 +37856,7 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1991-09-13</t>
+          <t>1991-09-25</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
@@ -37916,7 +37916,7 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>2000-04-02</t>
+          <t>2000-04-15</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
@@ -37976,7 +37976,7 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1985-10-04</t>
+          <t>1985-10-16</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
@@ -38036,7 +38036,7 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1989-10-07</t>
+          <t>1989-10-19</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
@@ -38096,7 +38096,7 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1983-06-17</t>
+          <t>1983-06-29</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
@@ -38156,7 +38156,7 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1986-09-10</t>
+          <t>1986-09-22</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
@@ -38216,7 +38216,7 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2006-03-25</t>
+          <t>2006-04-06</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
@@ -38276,7 +38276,7 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>2004-09-29</t>
+          <t>2004-10-11</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
@@ -38336,7 +38336,7 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1980-09-24</t>
+          <t>1980-10-06</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
@@ -38396,7 +38396,7 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1982-12-22</t>
+          <t>1983-01-03</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
@@ -38456,7 +38456,7 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1995-11-07</t>
+          <t>1995-11-19</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
@@ -38516,7 +38516,7 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1981-12-16</t>
+          <t>1981-12-28</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
@@ -38576,7 +38576,7 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1978-07-10</t>
+          <t>1978-07-22</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
@@ -38636,7 +38636,7 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1999-12-10</t>
+          <t>1999-12-22</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
@@ -38696,7 +38696,7 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1985-11-12</t>
+          <t>1985-11-25</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
@@ -38756,7 +38756,7 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>1975-09-29</t>
+          <t>1975-10-11</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
@@ -38816,7 +38816,7 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1998-10-22</t>
+          <t>1998-11-03</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
@@ -38876,7 +38876,7 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>2000-09-13</t>
+          <t>2000-09-25</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
@@ -38936,7 +38936,7 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1980-12-02</t>
+          <t>1980-12-14</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
@@ -38996,7 +38996,7 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1986-02-05</t>
+          <t>1986-02-17</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
@@ -39056,7 +39056,7 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>2005-06-13</t>
+          <t>2005-06-25</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
@@ -39116,7 +39116,7 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>2000-07-30</t>
+          <t>2000-08-11</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
@@ -39176,7 +39176,7 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1992-09-09</t>
+          <t>1992-09-21</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
@@ -39236,7 +39236,7 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>2000-01-28</t>
+          <t>2000-02-09</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
@@ -39296,7 +39296,7 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1986-02-14</t>
+          <t>1986-02-26</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
@@ -39356,7 +39356,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>2005-06-17</t>
+          <t>2005-06-30</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -39416,7 +39416,7 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1979-06-28</t>
+          <t>1979-07-10</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
@@ -39476,7 +39476,7 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1980-06-19</t>
+          <t>1980-07-01</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
@@ -39536,7 +39536,7 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1988-07-23</t>
+          <t>1988-08-04</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
@@ -39596,7 +39596,7 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1989-06-27</t>
+          <t>1989-07-09</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -39656,7 +39656,7 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1988-05-31</t>
+          <t>1988-06-12</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
@@ -39716,7 +39716,7 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>2000-08-15</t>
+          <t>2000-08-28</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
@@ -39776,7 +39776,7 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1988-04-04</t>
+          <t>1988-04-16</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
@@ -39836,7 +39836,7 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1975-04-10</t>
+          <t>1975-04-22</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
@@ -39896,7 +39896,7 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>2004-11-23</t>
+          <t>2004-12-05</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
@@ -39956,7 +39956,7 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1991-04-16</t>
+          <t>1991-04-28</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
@@ -40016,7 +40016,7 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1979-03-13</t>
+          <t>1979-03-25</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>1999-05-06</t>
+          <t>1999-05-18</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
@@ -40136,7 +40136,7 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1981-10-17</t>
+          <t>1981-10-29</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
@@ -40196,7 +40196,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>2002-06-02</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -40256,7 +40256,7 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>2003-12-30</t>
+          <t>2004-01-11</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
@@ -40316,7 +40316,7 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1998-02-17</t>
+          <t>1998-03-01</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
@@ -40376,7 +40376,7 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>2000-09-04</t>
+          <t>2000-09-16</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
@@ -40436,7 +40436,7 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>2001-01-03</t>
+          <t>2001-01-15</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
@@ -40496,7 +40496,7 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>2004-03-14</t>
+          <t>2004-03-26</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
@@ -40556,7 +40556,7 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1985-01-21</t>
+          <t>1985-02-02</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
@@ -40616,7 +40616,7 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>1986-04-10</t>
+          <t>1986-04-22</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
@@ -40676,7 +40676,7 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1984-05-03</t>
+          <t>1984-05-16</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
@@ -40736,7 +40736,7 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1983-07-04</t>
+          <t>1983-07-16</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
@@ -40796,7 +40796,7 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>1986-02-03</t>
+          <t>1986-02-15</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
@@ -40856,7 +40856,7 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1988-10-09</t>
+          <t>1988-10-21</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
@@ -40916,7 +40916,7 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>2000-12-18</t>
+          <t>2000-12-30</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
@@ -40976,7 +40976,7 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>2001-02-05</t>
+          <t>2001-02-17</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
@@ -41036,7 +41036,7 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1994-12-06</t>
+          <t>1994-12-18</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -41096,7 +41096,7 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1976-06-26</t>
+          <t>1976-07-08</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
@@ -41156,7 +41156,7 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1997-05-21</t>
+          <t>1997-06-02</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
@@ -41216,7 +41216,7 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>2005-01-15</t>
+          <t>2005-01-27</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
@@ -41276,7 +41276,7 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>1989-02-02</t>
+          <t>1989-02-15</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
@@ -41336,7 +41336,7 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>2000-05-07</t>
+          <t>2000-05-19</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
@@ -41396,7 +41396,7 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1982-08-22</t>
+          <t>1982-09-03</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
@@ -41456,7 +41456,7 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1995-08-31</t>
+          <t>1995-09-12</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
@@ -41516,7 +41516,7 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1984-03-23</t>
+          <t>1984-04-04</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
@@ -41576,7 +41576,7 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1990-07-12</t>
+          <t>1990-07-24</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
@@ -41636,7 +41636,7 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>1998-01-07</t>
+          <t>1998-01-19</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
@@ -41696,7 +41696,7 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>2002-12-17</t>
+          <t>2002-12-30</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
@@ -41756,7 +41756,7 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1984-08-14</t>
+          <t>1984-08-26</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
@@ -41816,7 +41816,7 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1981-04-08</t>
+          <t>1981-04-20</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
@@ -41876,7 +41876,7 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1983-07-23</t>
+          <t>1983-08-04</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
@@ -41936,7 +41936,7 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1994-08-20</t>
+          <t>1994-09-01</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
@@ -41996,7 +41996,7 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>2002-12-22</t>
+          <t>2003-01-03</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
@@ -42056,7 +42056,7 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1986-09-11</t>
+          <t>1986-09-24</t>
         </is>
       </c>
       <c r="J694" t="inlineStr">
@@ -42116,7 +42116,7 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1976-09-18</t>
+          <t>1976-10-01</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
@@ -42176,7 +42176,7 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1976-01-06</t>
+          <t>1976-01-18</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
@@ -42236,7 +42236,7 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1976-07-27</t>
+          <t>1976-08-08</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
@@ -42296,7 +42296,7 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1997-03-27</t>
+          <t>1997-04-09</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
@@ -42356,7 +42356,7 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1994-02-08</t>
+          <t>1994-02-20</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
@@ -42416,7 +42416,7 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>2002-10-07</t>
+          <t>2002-10-19</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
@@ -42476,7 +42476,7 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1981-09-13</t>
+          <t>1981-09-25</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
@@ -42536,7 +42536,7 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1987-10-08</t>
+          <t>1987-10-20</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
@@ -42596,7 +42596,7 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1989-01-19</t>
+          <t>1989-01-31</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
@@ -42656,7 +42656,7 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>2006-12-30</t>
+          <t>2007-01-11</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
@@ -42716,7 +42716,7 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1987-07-12</t>
+          <t>1987-07-24</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
@@ -42776,7 +42776,7 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1984-09-24</t>
+          <t>1984-10-06</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
@@ -42836,7 +42836,7 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>2002-10-05</t>
+          <t>2002-10-17</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
@@ -42896,7 +42896,7 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1985-05-28</t>
+          <t>1985-06-09</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
@@ -42956,7 +42956,7 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1982-12-05</t>
+          <t>1982-12-17</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>2002-11-25</t>
+          <t>2002-12-07</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
@@ -43076,7 +43076,7 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1993-11-21</t>
+          <t>1993-12-03</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
@@ -43136,7 +43136,7 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>2001-02-14</t>
+          <t>2001-02-26</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
@@ -43196,7 +43196,7 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-07-08</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
@@ -43256,7 +43256,7 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>1987-04-27</t>
+          <t>1987-05-09</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
@@ -43316,7 +43316,7 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1980-01-01</t>
+          <t>1980-01-13</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
@@ -43376,7 +43376,7 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>1991-05-06</t>
+          <t>1991-05-18</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
@@ -43436,7 +43436,7 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>1981-05-13</t>
+          <t>1981-05-25</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
@@ -43496,7 +43496,7 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>1998-06-19</t>
+          <t>1998-07-01</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
@@ -43556,7 +43556,7 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1996-01-31</t>
+          <t>1996-02-12</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1976-01-04</t>
+          <t>1976-01-16</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
@@ -43676,7 +43676,7 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>1989-01-06</t>
+          <t>1989-01-18</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
@@ -43736,7 +43736,7 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>1991-08-31</t>
+          <t>1991-09-13</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
@@ -43796,7 +43796,7 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>1982-07-23</t>
+          <t>1982-08-04</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
@@ -43856,7 +43856,7 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1989-11-07</t>
+          <t>1989-11-19</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
@@ -43916,7 +43916,7 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1976-05-12</t>
+          <t>1976-05-24</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
@@ -43976,7 +43976,7 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1994-07-12</t>
+          <t>1994-07-24</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
@@ -44036,7 +44036,7 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>1993-06-23</t>
+          <t>1993-07-05</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
@@ -44096,7 +44096,7 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>1985-10-04</t>
+          <t>1985-10-16</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
@@ -44156,7 +44156,7 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1978-04-15</t>
+          <t>1978-04-27</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
@@ -44216,7 +44216,7 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>1983-03-16</t>
+          <t>1983-03-28</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
@@ -44276,7 +44276,7 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>2000-11-22</t>
+          <t>2000-12-04</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
@@ -44336,7 +44336,7 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1999-01-25</t>
+          <t>1999-02-06</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
@@ -44396,7 +44396,7 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>2005-10-23</t>
+          <t>2005-11-04</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
@@ -44456,7 +44456,7 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>2006-04-25</t>
+          <t>2006-05-07</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
@@ -44516,7 +44516,7 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>1989-05-22</t>
+          <t>1989-06-03</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
@@ -44576,7 +44576,7 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>1981-06-19</t>
+          <t>1981-07-01</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
@@ -44636,7 +44636,7 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>1986-11-22</t>
+          <t>1986-12-04</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
@@ -44696,7 +44696,7 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>1984-10-12</t>
+          <t>1984-10-24</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
@@ -44756,7 +44756,7 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>1989-02-15</t>
+          <t>1989-02-27</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
@@ -44816,7 +44816,7 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>2003-02-19</t>
+          <t>2003-03-03</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
@@ -44876,7 +44876,7 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1978-02-03</t>
+          <t>1978-02-15</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
@@ -44936,7 +44936,7 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>2006-10-22</t>
+          <t>2006-11-03</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
@@ -44996,7 +44996,7 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>1981-09-27</t>
+          <t>1981-10-09</t>
         </is>
       </c>
       <c r="J743" t="inlineStr">
@@ -45056,7 +45056,7 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>2006-12-29</t>
+          <t>2007-01-10</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
@@ -45116,7 +45116,7 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>1984-05-22</t>
+          <t>1984-06-03</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
@@ -45176,7 +45176,7 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>1987-05-25</t>
+          <t>1987-06-06</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
@@ -45236,7 +45236,7 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>1993-10-11</t>
+          <t>1993-10-23</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
@@ -45296,7 +45296,7 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>1998-11-09</t>
+          <t>1998-11-21</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
@@ -45356,7 +45356,7 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>1990-10-20</t>
+          <t>1990-11-01</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
@@ -45416,7 +45416,7 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>2006-10-22</t>
+          <t>2006-11-03</t>
         </is>
       </c>
       <c r="J750" t="inlineStr">
@@ -45476,7 +45476,7 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>1980-11-26</t>
+          <t>1980-12-08</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
@@ -45536,7 +45536,7 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>1980-03-19</t>
+          <t>1980-03-31</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
@@ -45596,7 +45596,7 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>2006-03-11</t>
+          <t>2006-03-23</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
@@ -45656,7 +45656,7 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>1994-12-24</t>
+          <t>1995-01-05</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
@@ -45716,7 +45716,7 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>1995-10-29</t>
+          <t>1995-11-11</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
@@ -45776,7 +45776,7 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>1979-07-04</t>
+          <t>1979-07-16</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
@@ -45836,7 +45836,7 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>1993-11-11</t>
+          <t>1993-11-23</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
@@ -45896,7 +45896,7 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>1975-05-04</t>
+          <t>1975-05-17</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
@@ -45956,7 +45956,7 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>2004-04-29</t>
+          <t>2004-05-11</t>
         </is>
       </c>
       <c r="J759" t="inlineStr">
@@ -46016,7 +46016,7 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>1990-03-13</t>
+          <t>1990-03-25</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
@@ -46076,7 +46076,7 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>1994-07-19</t>
+          <t>1994-07-31</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
@@ -46136,7 +46136,7 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>2003-09-12</t>
+          <t>2003-09-24</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
@@ -46196,7 +46196,7 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>2000-10-22</t>
+          <t>2000-11-03</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
@@ -46256,7 +46256,7 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>1994-03-27</t>
+          <t>1994-04-08</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
@@ -46316,7 +46316,7 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>1983-07-12</t>
+          <t>1983-07-24</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
@@ -46376,7 +46376,7 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>1985-05-10</t>
+          <t>1985-05-22</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
@@ -46436,7 +46436,7 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>1991-12-02</t>
+          <t>1991-12-14</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
@@ -46496,7 +46496,7 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>1988-06-04</t>
+          <t>1988-06-17</t>
         </is>
       </c>
       <c r="J768" t="inlineStr">
@@ -46556,7 +46556,7 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>1987-01-24</t>
+          <t>1987-02-05</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
@@ -46616,7 +46616,7 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>1976-03-01</t>
+          <t>1976-03-13</t>
         </is>
       </c>
       <c r="J770" t="inlineStr">
@@ -46676,7 +46676,7 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>2005-02-22</t>
+          <t>2005-03-06</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
@@ -46736,7 +46736,7 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>1983-05-10</t>
+          <t>1983-05-22</t>
         </is>
       </c>
       <c r="J772" t="inlineStr">
@@ -46796,7 +46796,7 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>2004-01-04</t>
+          <t>2004-01-16</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
@@ -46856,7 +46856,7 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>2004-08-14</t>
+          <t>2004-08-26</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
@@ -46916,7 +46916,7 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>2005-04-15</t>
+          <t>2005-04-27</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
@@ -46976,7 +46976,7 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>1982-03-23</t>
+          <t>1982-04-04</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
@@ -47036,7 +47036,7 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>1980-10-19</t>
+          <t>1980-10-31</t>
         </is>
       </c>
       <c r="J777" t="inlineStr">
@@ -47096,7 +47096,7 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>1977-01-16</t>
+          <t>1977-01-28</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
@@ -47156,7 +47156,7 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>1978-06-06</t>
+          <t>1978-06-18</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
@@ -47216,7 +47216,7 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>2005-12-04</t>
+          <t>2005-12-16</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
@@ -47276,7 +47276,7 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>1987-02-18</t>
+          <t>1987-03-02</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
@@ -47336,7 +47336,7 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>2001-05-20</t>
+          <t>2001-06-01</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
@@ -47396,7 +47396,7 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>1981-05-10</t>
+          <t>1981-05-22</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
@@ -47456,7 +47456,7 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>1980-01-23</t>
+          <t>1980-02-04</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
@@ -47516,7 +47516,7 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>2006-02-09</t>
+          <t>2006-02-21</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
@@ -47576,7 +47576,7 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>1988-04-05</t>
+          <t>1988-04-17</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
@@ -47636,7 +47636,7 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>1986-08-08</t>
+          <t>1986-08-20</t>
         </is>
       </c>
       <c r="J787" t="inlineStr">
@@ -47696,7 +47696,7 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>1997-07-04</t>
+          <t>1997-07-16</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
@@ -47756,7 +47756,7 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>1977-04-09</t>
+          <t>1977-04-21</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
@@ -47816,7 +47816,7 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>1975-05-29</t>
+          <t>1975-06-10</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
@@ -47876,7 +47876,7 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>1988-04-22</t>
+          <t>1988-05-04</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
@@ -47936,7 +47936,7 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>1996-08-15</t>
+          <t>1996-08-27</t>
         </is>
       </c>
       <c r="J792" t="inlineStr">
@@ -47996,7 +47996,7 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>1990-09-20</t>
+          <t>1990-10-02</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
@@ -48056,7 +48056,7 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>1978-05-10</t>
+          <t>1978-05-22</t>
         </is>
       </c>
       <c r="J794" t="inlineStr">
@@ -48116,7 +48116,7 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>2002-12-25</t>
+          <t>2003-01-06</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
@@ -48176,7 +48176,7 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>1980-11-06</t>
+          <t>1980-11-18</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
@@ -48236,7 +48236,7 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>2004-12-02</t>
+          <t>2004-12-14</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
@@ -48296,7 +48296,7 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>1994-11-04</t>
+          <t>1994-11-16</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
@@ -48356,7 +48356,7 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>2003-04-28</t>
+          <t>2003-05-10</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
@@ -48416,7 +48416,7 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>2004-11-25</t>
+          <t>2004-12-07</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
@@ -48476,7 +48476,7 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>1995-03-30</t>
+          <t>1995-04-11</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
@@ -48536,7 +48536,7 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>1992-03-27</t>
+          <t>1992-04-08</t>
         </is>
       </c>
       <c r="J802" t="inlineStr">
@@ -48596,7 +48596,7 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>1977-03-08</t>
+          <t>1977-03-20</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
@@ -48656,7 +48656,7 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>1983-08-16</t>
+          <t>1983-08-28</t>
         </is>
       </c>
       <c r="J804" t="inlineStr">
@@ -48716,7 +48716,7 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>1983-07-11</t>
+          <t>1983-07-23</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
@@ -48776,7 +48776,7 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>1975-07-31</t>
+          <t>1975-08-12</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
@@ -48836,7 +48836,7 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>1995-04-25</t>
+          <t>1995-05-08</t>
         </is>
       </c>
       <c r="J807" t="inlineStr">
@@ -48896,7 +48896,7 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>1984-09-13</t>
+          <t>1984-09-25</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
@@ -48956,7 +48956,7 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>1993-08-05</t>
+          <t>1993-08-17</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
@@ -49016,7 +49016,7 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>1991-10-29</t>
+          <t>1991-11-10</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
@@ -49076,7 +49076,7 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>2002-02-24</t>
+          <t>2002-03-08</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
@@ -49136,7 +49136,7 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>2002-04-15</t>
+          <t>2002-04-27</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
@@ -49196,7 +49196,7 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>2006-02-03</t>
+          <t>2006-02-15</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
@@ -49256,7 +49256,7 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>1994-03-10</t>
+          <t>1994-03-22</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
@@ -49316,7 +49316,7 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>1986-02-18</t>
+          <t>1986-03-02</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
@@ -49376,7 +49376,7 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>1995-09-01</t>
+          <t>1995-09-13</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
@@ -49436,7 +49436,7 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>2003-04-14</t>
+          <t>2003-04-26</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
@@ -49496,7 +49496,7 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>1989-06-19</t>
+          <t>1989-07-01</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
@@ -49556,7 +49556,7 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>1975-05-20</t>
+          <t>1975-06-01</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
@@ -49616,7 +49616,7 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>1997-01-23</t>
+          <t>1997-02-04</t>
         </is>
       </c>
       <c r="J820" t="inlineStr">
@@ -49676,7 +49676,7 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>1992-05-21</t>
+          <t>1992-06-02</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
@@ -49736,7 +49736,7 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>1976-11-21</t>
+          <t>1976-12-03</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
@@ -49796,7 +49796,7 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>1993-12-27</t>
+          <t>1994-01-08</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
@@ -49856,7 +49856,7 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>1980-05-11</t>
+          <t>1980-05-23</t>
         </is>
       </c>
       <c r="J824" t="inlineStr">
@@ -49916,7 +49916,7 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>1981-03-13</t>
+          <t>1981-03-26</t>
         </is>
       </c>
       <c r="J825" t="inlineStr">
@@ -49976,7 +49976,7 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>2001-09-05</t>
+          <t>2001-09-17</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
@@ -50036,7 +50036,7 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>1977-09-19</t>
+          <t>1977-10-01</t>
         </is>
       </c>
       <c r="J827" t="inlineStr">
@@ -50096,7 +50096,7 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>1977-12-18</t>
+          <t>1977-12-30</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
@@ -50156,7 +50156,7 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>1982-04-16</t>
+          <t>1982-04-28</t>
         </is>
       </c>
       <c r="J829" t="inlineStr">
@@ -50216,7 +50216,7 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>1986-12-24</t>
+          <t>1987-01-05</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
@@ -50276,7 +50276,7 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>2000-09-10</t>
+          <t>2000-09-22</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
@@ -50336,7 +50336,7 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>1983-05-29</t>
+          <t>1983-06-10</t>
         </is>
       </c>
       <c r="J832" t="inlineStr">
@@ -50396,7 +50396,7 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>1978-07-21</t>
+          <t>1978-08-02</t>
         </is>
       </c>
       <c r="J833" t="inlineStr">
@@ -50456,7 +50456,7 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>2000-11-19</t>
+          <t>2000-12-01</t>
         </is>
       </c>
       <c r="J834" t="inlineStr">
@@ -50516,7 +50516,7 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>2006-06-04</t>
+          <t>2006-06-16</t>
         </is>
       </c>
       <c r="J835" t="inlineStr">
@@ -50576,7 +50576,7 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>1989-12-11</t>
+          <t>1989-12-23</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
@@ -50636,7 +50636,7 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>2001-11-15</t>
+          <t>2001-11-27</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
@@ -50696,7 +50696,7 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>1983-12-06</t>
+          <t>1983-12-18</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
@@ -50756,7 +50756,7 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>1991-06-27</t>
+          <t>1991-07-10</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
@@ -50816,7 +50816,7 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>1997-11-17</t>
+          <t>1997-11-29</t>
         </is>
       </c>
       <c r="J840" t="inlineStr">
@@ -50876,7 +50876,7 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>1988-11-05</t>
+          <t>1988-11-17</t>
         </is>
       </c>
       <c r="J841" t="inlineStr">
@@ -50936,7 +50936,7 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>2006-02-11</t>
+          <t>2006-02-23</t>
         </is>
       </c>
       <c r="J842" t="inlineStr">
@@ -50996,7 +50996,7 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>1996-03-29</t>
+          <t>1996-04-11</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
@@ -51056,7 +51056,7 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>1999-08-03</t>
+          <t>1999-08-15</t>
         </is>
       </c>
       <c r="J844" t="inlineStr">
@@ -51116,7 +51116,7 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>2001-09-04</t>
+          <t>2001-09-17</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
@@ -51176,7 +51176,7 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>1989-10-17</t>
+          <t>1989-10-29</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
@@ -51236,7 +51236,7 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>1990-07-13</t>
+          <t>1990-07-25</t>
         </is>
       </c>
       <c r="J847" t="inlineStr">
@@ -51296,7 +51296,7 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>1980-05-25</t>
+          <t>1980-06-07</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
@@ -51356,7 +51356,7 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>2004-02-02</t>
+          <t>2004-02-14</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
@@ -51416,7 +51416,7 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>1991-08-03</t>
+          <t>1991-08-15</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
@@ -51476,7 +51476,7 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>1991-12-19</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="J851" t="inlineStr">
@@ -51536,7 +51536,7 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>1983-04-24</t>
+          <t>1983-05-06</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
@@ -51596,7 +51596,7 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>1984-07-24</t>
+          <t>1984-08-05</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
@@ -51656,7 +51656,7 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>1985-09-14</t>
+          <t>1985-09-27</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
@@ -51716,7 +51716,7 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>1977-02-08</t>
+          <t>1977-02-20</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
@@ -51776,7 +51776,7 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>1988-11-14</t>
+          <t>1988-11-26</t>
         </is>
       </c>
       <c r="J856" t="inlineStr">
@@ -51836,7 +51836,7 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>1993-08-13</t>
+          <t>1993-08-25</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
@@ -51896,7 +51896,7 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>1996-09-05</t>
+          <t>1996-09-17</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
@@ -51956,7 +51956,7 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>1976-03-14</t>
+          <t>1976-03-26</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
@@ -52016,7 +52016,7 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>2002-12-29</t>
+          <t>2003-01-10</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
@@ -52076,7 +52076,7 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>2001-10-20</t>
+          <t>2001-11-01</t>
         </is>
       </c>
       <c r="J861" t="inlineStr">
@@ -52136,7 +52136,7 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>1997-04-29</t>
+          <t>1997-05-11</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
@@ -52196,7 +52196,7 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>1978-01-01</t>
+          <t>1978-01-14</t>
         </is>
       </c>
       <c r="J863" t="inlineStr">
@@ -52256,7 +52256,7 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>1995-04-05</t>
+          <t>1995-04-17</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
@@ -52316,7 +52316,7 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>1978-03-03</t>
+          <t>1978-03-15</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
@@ -52376,7 +52376,7 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>1981-01-23</t>
+          <t>1981-02-04</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
@@ -52436,7 +52436,7 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>1997-02-06</t>
+          <t>1997-02-18</t>
         </is>
       </c>
       <c r="J867" t="inlineStr">
@@ -52496,7 +52496,7 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>1992-07-28</t>
+          <t>1992-08-09</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
@@ -52556,7 +52556,7 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>2001-04-30</t>
+          <t>2001-05-13</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
@@ -52616,7 +52616,7 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>1991-01-25</t>
+          <t>1991-02-06</t>
         </is>
       </c>
       <c r="J870" t="inlineStr">
@@ -52676,7 +52676,7 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>1988-04-12</t>
+          <t>1988-04-24</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
@@ -52736,7 +52736,7 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>1992-02-22</t>
+          <t>1992-03-05</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
@@ -52796,7 +52796,7 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>2004-11-08</t>
+          <t>2004-11-20</t>
         </is>
       </c>
       <c r="J873" t="inlineStr">
@@ -52856,7 +52856,7 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>1985-04-04</t>
+          <t>1985-04-16</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
@@ -52916,7 +52916,7 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>2000-04-19</t>
+          <t>2000-05-01</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
@@ -52976,7 +52976,7 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>1996-06-02</t>
+          <t>1996-06-14</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
@@ -53036,7 +53036,7 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>1984-11-30</t>
+          <t>1984-12-12</t>
         </is>
       </c>
       <c r="J877" t="inlineStr">
@@ -53096,7 +53096,7 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>1994-03-02</t>
+          <t>1994-03-14</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
@@ -53156,7 +53156,7 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>1985-02-13</t>
+          <t>1985-02-25</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
@@ -53216,7 +53216,7 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>2005-04-13</t>
+          <t>2005-04-25</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
@@ -53276,7 +53276,7 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>2001-12-12</t>
+          <t>2001-12-25</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
@@ -53336,7 +53336,7 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>2001-09-04</t>
+          <t>2001-09-17</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
@@ -53396,7 +53396,7 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>1983-09-30</t>
+          <t>1983-10-12</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
@@ -53456,7 +53456,7 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>1988-01-11</t>
+          <t>1988-01-23</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
@@ -53516,7 +53516,7 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>1989-08-24</t>
+          <t>1989-09-06</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
@@ -53576,7 +53576,7 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>1997-06-14</t>
+          <t>1997-06-26</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
@@ -53636,7 +53636,7 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>1976-03-31</t>
+          <t>1976-04-12</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
@@ -53696,7 +53696,7 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>1984-12-28</t>
+          <t>1985-01-09</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
@@ -53756,7 +53756,7 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>1997-07-22</t>
+          <t>1997-08-03</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
@@ -53816,7 +53816,7 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>1995-12-25</t>
+          <t>1996-01-06</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
@@ -53876,7 +53876,7 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>1989-05-23</t>
+          <t>1989-06-04</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
@@ -53936,7 +53936,7 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>1999-04-12</t>
+          <t>1999-04-24</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
@@ -53996,7 +53996,7 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>2005-04-05</t>
+          <t>2005-04-17</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
@@ -54056,7 +54056,7 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>1991-01-07</t>
+          <t>1991-01-19</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
@@ -54116,7 +54116,7 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>1995-01-10</t>
+          <t>1995-01-22</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
@@ -54176,7 +54176,7 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>1982-11-11</t>
+          <t>1982-11-23</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
@@ -54236,7 +54236,7 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>1987-07-09</t>
+          <t>1987-07-21</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
@@ -54296,7 +54296,7 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>1988-06-08</t>
+          <t>1988-06-20</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
@@ -54356,7 +54356,7 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>2007-01-16</t>
+          <t>2007-01-28</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
@@ -54416,7 +54416,7 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>1991-12-05</t>
+          <t>1991-12-17</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
@@ -54476,7 +54476,7 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>1990-10-01</t>
+          <t>1990-10-13</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
@@ -54536,7 +54536,7 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>1981-09-05</t>
+          <t>1981-09-17</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
@@ -54596,7 +54596,7 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>1985-01-31</t>
+          <t>1985-02-13</t>
         </is>
       </c>
       <c r="J903" t="inlineStr">
@@ -54656,7 +54656,7 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>1983-10-15</t>
+          <t>1983-10-27</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
@@ -54716,7 +54716,7 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>1975-03-14</t>
+          <t>1975-03-26</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
@@ -54776,7 +54776,7 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>1990-09-23</t>
+          <t>1990-10-05</t>
         </is>
       </c>
       <c r="J906" t="inlineStr">
@@ -54836,7 +54836,7 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>1998-02-02</t>
+          <t>1998-02-14</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
@@ -54896,7 +54896,7 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>1984-02-13</t>
+          <t>1984-02-25</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
@@ -54956,7 +54956,7 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>1981-10-09</t>
+          <t>1981-10-21</t>
         </is>
       </c>
       <c r="J909" t="inlineStr">
@@ -55016,7 +55016,7 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>1987-08-14</t>
+          <t>1987-08-26</t>
         </is>
       </c>
       <c r="J910" t="inlineStr">
@@ -55076,7 +55076,7 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>1989-01-01</t>
+          <t>1989-01-13</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
@@ -55136,7 +55136,7 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>1991-11-14</t>
+          <t>1991-11-26</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
@@ -55196,7 +55196,7 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>1994-04-11</t>
+          <t>1994-04-23</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
@@ -55256,7 +55256,7 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>2001-05-03</t>
+          <t>2001-05-15</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
@@ -55316,7 +55316,7 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>1987-04-19</t>
+          <t>1987-05-02</t>
         </is>
       </c>
       <c r="J915" t="inlineStr">
@@ -55376,7 +55376,7 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>1985-03-20</t>
+          <t>1985-04-01</t>
         </is>
       </c>
       <c r="J916" t="inlineStr">
@@ -55436,7 +55436,7 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>1994-12-31</t>
+          <t>1995-01-12</t>
         </is>
       </c>
       <c r="J917" t="inlineStr">
@@ -55496,7 +55496,7 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>1991-03-04</t>
+          <t>1991-03-16</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
@@ -55556,7 +55556,7 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>1975-08-22</t>
+          <t>1975-09-03</t>
         </is>
       </c>
       <c r="J919" t="inlineStr">
@@ -55616,7 +55616,7 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>1980-05-07</t>
+          <t>1980-05-20</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
@@ -55676,7 +55676,7 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>1996-07-14</t>
+          <t>1996-07-26</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
@@ -55736,7 +55736,7 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>1991-01-08</t>
+          <t>1991-01-20</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
@@ -55796,7 +55796,7 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>1991-09-04</t>
+          <t>1991-09-16</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
@@ -55856,7 +55856,7 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>1999-08-29</t>
+          <t>1999-09-10</t>
         </is>
       </c>
       <c r="J924" t="inlineStr">
@@ -55916,7 +55916,7 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>1981-02-08</t>
+          <t>1981-02-20</t>
         </is>
       </c>
       <c r="J925" t="inlineStr">
@@ -55976,7 +55976,7 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>1994-05-15</t>
+          <t>1994-05-27</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
@@ -56036,7 +56036,7 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>1985-11-30</t>
+          <t>1985-12-13</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
@@ -56096,7 +56096,7 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>1995-08-21</t>
+          <t>1995-09-02</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
@@ -56156,7 +56156,7 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>1992-03-17</t>
+          <t>1992-03-29</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
@@ -56216,7 +56216,7 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>1984-12-30</t>
+          <t>1985-01-11</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
@@ -56276,7 +56276,7 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>1983-11-28</t>
+          <t>1983-12-10</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
@@ -56336,7 +56336,7 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>2006-08-25</t>
+          <t>2006-09-06</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
@@ -56396,7 +56396,7 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>1999-11-29</t>
+          <t>1999-12-11</t>
         </is>
       </c>
       <c r="J933" t="inlineStr">
@@ -56456,7 +56456,7 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>1979-08-10</t>
+          <t>1979-08-22</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
@@ -56516,7 +56516,7 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>2005-02-05</t>
+          <t>2005-02-17</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
@@ -56576,7 +56576,7 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>2003-07-06</t>
+          <t>2003-07-18</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
@@ -56636,7 +56636,7 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>2005-09-26</t>
+          <t>2005-10-08</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
@@ -56696,7 +56696,7 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>1976-08-26</t>
+          <t>1976-09-07</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
@@ -56756,7 +56756,7 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>1994-08-29</t>
+          <t>1994-09-10</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
@@ -56816,7 +56816,7 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>1982-05-10</t>
+          <t>1982-05-22</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
@@ -56876,7 +56876,7 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>1995-09-12</t>
+          <t>1995-09-25</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
@@ -56936,7 +56936,7 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>1976-10-13</t>
+          <t>1976-10-25</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
@@ -56996,7 +56996,7 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>1978-11-09</t>
+          <t>1978-11-21</t>
         </is>
       </c>
       <c r="J943" t="inlineStr">
@@ -57056,7 +57056,7 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>1985-12-04</t>
+          <t>1985-12-16</t>
         </is>
       </c>
       <c r="J944" t="inlineStr">
@@ -57116,7 +57116,7 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>1995-10-07</t>
+          <t>1995-10-19</t>
         </is>
       </c>
       <c r="J945" t="inlineStr">
@@ -57176,7 +57176,7 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>2006-12-29</t>
+          <t>2007-01-10</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
@@ -57236,7 +57236,7 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>2005-08-24</t>
+          <t>2005-09-05</t>
         </is>
       </c>
       <c r="J947" t="inlineStr">
@@ -57296,7 +57296,7 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>2006-07-28</t>
+          <t>2006-08-09</t>
         </is>
       </c>
       <c r="J948" t="inlineStr">
@@ -57356,7 +57356,7 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>1994-01-14</t>
+          <t>1994-01-26</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
@@ -57416,7 +57416,7 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>1998-01-11</t>
+          <t>1998-01-23</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
@@ -57476,7 +57476,7 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>1993-06-04</t>
+          <t>1993-06-16</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
@@ -57536,7 +57536,7 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>1985-10-06</t>
+          <t>1985-10-19</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
@@ -57596,7 +57596,7 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>1994-08-14</t>
+          <t>1994-08-26</t>
         </is>
       </c>
       <c r="J953" t="inlineStr">
@@ -57656,7 +57656,7 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>1979-04-05</t>
+          <t>1979-04-17</t>
         </is>
       </c>
       <c r="J954" t="inlineStr">
@@ -57716,7 +57716,7 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>1991-10-08</t>
+          <t>1991-10-20</t>
         </is>
       </c>
       <c r="J955" t="inlineStr">
@@ -57776,7 +57776,7 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>2003-10-12</t>
+          <t>2003-10-24</t>
         </is>
       </c>
       <c r="J956" t="inlineStr">
@@ -57836,7 +57836,7 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>1996-11-07</t>
+          <t>1996-11-19</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
@@ -57896,7 +57896,7 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>1976-03-30</t>
+          <t>1976-04-11</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
@@ -57956,7 +57956,7 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>1984-07-20</t>
+          <t>1984-08-01</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
@@ -58016,7 +58016,7 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>1977-04-22</t>
+          <t>1977-05-05</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
@@ -58076,7 +58076,7 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>2002-09-13</t>
+          <t>2002-09-25</t>
         </is>
       </c>
       <c r="J961" t="inlineStr">
@@ -58136,7 +58136,7 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>1998-06-02</t>
+          <t>1998-06-14</t>
         </is>
       </c>
       <c r="J962" t="inlineStr">
@@ -58196,7 +58196,7 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>1993-06-27</t>
+          <t>1993-07-09</t>
         </is>
       </c>
       <c r="J963" t="inlineStr">
@@ -58256,7 +58256,7 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>1978-07-16</t>
+          <t>1978-07-28</t>
         </is>
       </c>
       <c r="J964" t="inlineStr">
@@ -58316,7 +58316,7 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>1994-06-06</t>
+          <t>1994-06-18</t>
         </is>
       </c>
       <c r="J965" t="inlineStr">
@@ -58376,7 +58376,7 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>1990-09-11</t>
+          <t>1990-09-23</t>
         </is>
       </c>
       <c r="J966" t="inlineStr">
@@ -58436,7 +58436,7 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>2006-02-15</t>
+          <t>2006-02-27</t>
         </is>
       </c>
       <c r="J967" t="inlineStr">
@@ -58496,7 +58496,7 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>1987-09-17</t>
+          <t>1987-09-29</t>
         </is>
       </c>
       <c r="J968" t="inlineStr">
@@ -58556,7 +58556,7 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>1996-11-21</t>
+          <t>1996-12-03</t>
         </is>
       </c>
       <c r="J969" t="inlineStr">
@@ -58616,7 +58616,7 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>1989-02-07</t>
+          <t>1989-02-20</t>
         </is>
       </c>
       <c r="J970" t="inlineStr">
@@ -58676,7 +58676,7 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>2006-02-09</t>
+          <t>2006-02-21</t>
         </is>
       </c>
       <c r="J971" t="inlineStr">
@@ -58736,7 +58736,7 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1977-05-17</t>
+          <t>1977-05-29</t>
         </is>
       </c>
       <c r="J972" t="inlineStr">
@@ -58796,7 +58796,7 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>2006-05-31</t>
+          <t>2006-06-12</t>
         </is>
       </c>
       <c r="J973" t="inlineStr">
@@ -58856,7 +58856,7 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2006-07-06</t>
+          <t>2006-07-18</t>
         </is>
       </c>
       <c r="J974" t="inlineStr">
@@ -58916,7 +58916,7 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>1980-09-24</t>
+          <t>1980-10-06</t>
         </is>
       </c>
       <c r="J975" t="inlineStr">
@@ -58976,7 +58976,7 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>1979-08-17</t>
+          <t>1979-08-29</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
@@ -59036,7 +59036,7 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>1975-04-06</t>
+          <t>1975-04-18</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
@@ -59096,7 +59096,7 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>1996-10-09</t>
+          <t>1996-10-21</t>
         </is>
       </c>
       <c r="J978" t="inlineStr">
@@ -59156,7 +59156,7 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>1998-04-24</t>
+          <t>1998-05-06</t>
         </is>
       </c>
       <c r="J979" t="inlineStr">
@@ -59216,7 +59216,7 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>1995-02-04</t>
+          <t>1995-02-16</t>
         </is>
       </c>
       <c r="J980" t="inlineStr">
@@ -59276,7 +59276,7 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>1985-11-09</t>
+          <t>1985-11-21</t>
         </is>
       </c>
       <c r="J981" t="inlineStr">
@@ -59336,7 +59336,7 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>1983-04-25</t>
+          <t>1983-05-07</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
@@ -59396,7 +59396,7 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1994-08-25</t>
+          <t>1994-09-06</t>
         </is>
       </c>
       <c r="J983" t="inlineStr">
@@ -59456,7 +59456,7 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>2005-06-12</t>
+          <t>2005-06-24</t>
         </is>
       </c>
       <c r="J984" t="inlineStr">
@@ -59516,7 +59516,7 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>1995-03-11</t>
+          <t>1995-03-23</t>
         </is>
       </c>
       <c r="J985" t="inlineStr">
@@ -59576,7 +59576,7 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>1982-06-18</t>
+          <t>1982-06-30</t>
         </is>
       </c>
       <c r="J986" t="inlineStr">
@@ -59636,7 +59636,7 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>1988-08-16</t>
+          <t>1988-08-28</t>
         </is>
       </c>
       <c r="J987" t="inlineStr">
@@ -59696,7 +59696,7 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>1979-03-15</t>
+          <t>1979-03-27</t>
         </is>
       </c>
       <c r="J988" t="inlineStr">
@@ -59756,7 +59756,7 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1997-09-09</t>
+          <t>1997-09-21</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
@@ -59816,7 +59816,7 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2003-05-10</t>
+          <t>2003-05-22</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
@@ -59876,7 +59876,7 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>2000-02-06</t>
+          <t>2000-02-18</t>
         </is>
       </c>
       <c r="J991" t="inlineStr">
@@ -59936,7 +59936,7 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>1982-12-16</t>
+          <t>1982-12-28</t>
         </is>
       </c>
       <c r="J992" t="inlineStr">
@@ -59996,7 +59996,7 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>1979-07-16</t>
+          <t>1979-07-28</t>
         </is>
       </c>
       <c r="J993" t="inlineStr">
@@ -60056,7 +60056,7 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>1995-04-02</t>
+          <t>1995-04-14</t>
         </is>
       </c>
       <c r="J994" t="inlineStr">
@@ -60116,7 +60116,7 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>1989-04-02</t>
+          <t>1989-04-14</t>
         </is>
       </c>
       <c r="J995" t="inlineStr">
@@ -60176,7 +60176,7 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1996-09-04</t>
+          <t>1996-09-16</t>
         </is>
       </c>
       <c r="J996" t="inlineStr">
@@ -60236,7 +60236,7 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>1977-12-05</t>
+          <t>1977-12-17</t>
         </is>
       </c>
       <c r="J997" t="inlineStr">
@@ -60296,7 +60296,7 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>1989-08-07</t>
+          <t>1989-08-19</t>
         </is>
       </c>
       <c r="J998" t="inlineStr">
@@ -60356,7 +60356,7 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>1997-03-01</t>
+          <t>1997-03-13</t>
         </is>
       </c>
       <c r="J999" t="inlineStr">
@@ -60416,7 +60416,7 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>1980-11-15</t>
+          <t>1980-11-27</t>
         </is>
       </c>
       <c r="J1000" t="inlineStr">
@@ -60476,7 +60476,7 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>1982-12-14</t>
+          <t>1982-12-27</t>
         </is>
       </c>
       <c r="J1001" t="inlineStr">
